--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
@@ -1201,341 +1201,341 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,237 +14149,237 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>24</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -19950,104 +19950,104 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
+      <c r="A376" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B376" t="inlineStr">
+      <c r="B376" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
+      <c r="C376" s="2" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D376" t="n">
+      <c r="D376" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E376" t="inlineStr">
+      <c r="E376" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F376" t="inlineStr">
+      <c r="F376" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G376" t="b">
-        <v>1</v>
-      </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I376" t="b">
-        <v>1</v>
-      </c>
-      <c r="J376" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K376" t="b">
-        <v>1</v>
-      </c>
-      <c r="L376" t="inlineStr">
+      <c r="G376" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I376" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J376" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K376" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L376" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
+      <c r="A377" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B377" t="inlineStr">
+      <c r="B377" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr">
+      <c r="C377" s="2" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D377" t="n">
-        <v>1</v>
-      </c>
-      <c r="E377" t="inlineStr">
+      <c r="D377" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F377" t="inlineStr">
+      <c r="F377" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G377" t="b">
-        <v>1</v>
-      </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I377" t="b">
-        <v>1</v>
-      </c>
-      <c r="J377" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K377" t="b">
-        <v>1</v>
-      </c>
-      <c r="L377" t="inlineStr">
+      <c r="G377" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I377" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J377" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K377" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L377" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="F387" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G387" s="2" t="b">
@@ -20569,7 +20569,7 @@
       </c>
       <c r="L387" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="F449" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G449" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="L449" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="F450" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G450" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -23845,7 +23845,7 @@
       </c>
       <c r="L450" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
@@ -1201,341 +1201,341 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14149,237 +14149,237 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>24</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>24</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>24</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>24</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="D265" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D267" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -19950,104 +19950,104 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
+      <c r="A376" t="n">
         <v>34</v>
       </c>
-      <c r="B376" s="2" t="inlineStr">
+      <c r="B376" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C376" s="2" t="inlineStr">
+      <c r="C376" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D376" s="2" t="n">
+      <c r="D376" t="n">
         <v>0</v>
       </c>
-      <c r="E376" s="2" t="inlineStr">
+      <c r="E376" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F376" s="2" t="inlineStr">
+      <c r="F376" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G376" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H376" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I376" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K376" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L376" s="2" t="inlineStr">
+      <c r="G376" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I376" t="b">
+        <v>1</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K376" t="b">
+        <v>1</v>
+      </c>
+      <c r="L376" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
+      <c r="A377" t="n">
         <v>34</v>
       </c>
-      <c r="B377" s="2" t="inlineStr">
+      <c r="B377" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C377" s="2" t="inlineStr">
+      <c r="C377" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D377" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E377" s="2" t="inlineStr">
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F377" s="2" t="inlineStr">
+      <c r="F377" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G377" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H377" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I377" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K377" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L377" s="2" t="inlineStr">
+      <c r="G377" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I377" t="b">
+        <v>1</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K377" t="b">
+        <v>1</v>
+      </c>
+      <c r="L377" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="F387" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G387" s="2" t="b">
@@ -20569,7 +20569,7 @@
       </c>
       <c r="L387" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="F449" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G449" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="L449" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="F450" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G450" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -23845,7 +23845,7 @@
       </c>
       <c r="L450" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
